--- a/DownloadInvoices/Config_DownloadInv.xlsx
+++ b/DownloadInvoices/Config_DownloadInv.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>Name</t>
   </si>
@@ -251,9 +251,6 @@
     <t>Daily Or Monthly</t>
   </si>
   <si>
-    <t>Monthly</t>
-  </si>
-  <si>
     <t>OtherSAPInvFolder</t>
   </si>
   <si>
@@ -302,10 +299,28 @@
     <t>.pdf|.PDF</t>
   </si>
   <si>
-    <t>Santosh Nandal</t>
-  </si>
-  <si>
-    <t>Date,Log Type,Invoice Category,Invoice File Name,Invoice Folder</t>
+    <t>Saranya.Samuel@BlackBox.com</t>
+  </si>
+  <si>
+    <t>Saranya Samuel</t>
+  </si>
+  <si>
+    <t>SAPPORegEx</t>
+  </si>
+  <si>
+    <t>OtherSAPPORegEx</t>
+  </si>
+  <si>
+    <t>Date,Log Type,Invoice File Name,Invoice Folder,Invoice Category,Invoice Source,FromEmailID,FromEmailDateTime</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>[0-9]{8}</t>
+  </si>
+  <si>
+    <t>[a-zA-Z0-9]{8}</t>
   </si>
 </sst>
 </file>
@@ -684,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -735,7 +750,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -743,7 +758,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>90</v>
@@ -815,10 +830,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>24</v>
@@ -826,21 +841,21 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="C15" s="3"/>
     </row>
@@ -866,7 +881,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="5">
         <v>45</v>
@@ -877,66 +892,64 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="3"/>
+        <v>88</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>56</v>
@@ -944,152 +957,172 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="3"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>43</v>
+        <v>29</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>80</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>84</v>
+      <c r="C45" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/DownloadInvoices/Config_DownloadInv.xlsx
+++ b/DownloadInvoices/Config_DownloadInv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Official\Automation\InvoiceProcessing\Development\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\Invoice Processing\DownloadInvoices\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
   <si>
     <t>Name</t>
   </si>
@@ -41,12 +41,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>ExportsFolder</t>
-  </si>
-  <si>
-    <t>Output folder for exported data</t>
-  </si>
-  <si>
     <t>ImportFolder</t>
   </si>
   <si>
@@ -86,9 +80,6 @@
     <t>Filter mail based on Subject</t>
   </si>
   <si>
-    <t>santosh.nandal@blackbox.com</t>
-  </si>
-  <si>
     <t>MailMoveFolder</t>
   </si>
   <si>
@@ -206,18 +197,6 @@
     <t>BasePath</t>
   </si>
   <si>
-    <t>C:\Official\Automation\InvoiceProcessing\Development</t>
-  </si>
-  <si>
-    <t>Data\SAP Invoices</t>
-  </si>
-  <si>
-    <t>Data\ImportFolder</t>
-  </si>
-  <si>
-    <t>Data\ExportFolder</t>
-  </si>
-  <si>
     <t>SystemLogHeader</t>
   </si>
   <si>
@@ -230,15 +209,9 @@
     <t>LogFrequency</t>
   </si>
   <si>
-    <t>Log</t>
-  </si>
-  <si>
     <t>LogFolderName</t>
   </si>
   <si>
-    <t>ApplicationLog_</t>
-  </si>
-  <si>
     <t>SystemLog_</t>
   </si>
   <si>
@@ -275,36 +248,18 @@
     <t>NonSAPInvFolder</t>
   </si>
   <si>
-    <t>Data\NonSAP Invoices</t>
-  </si>
-  <si>
-    <t>Data\Other SAP Invoices</t>
-  </si>
-  <si>
     <t>Date, Invoice Category, Invoice File Name, Invoice Folder, Status</t>
   </si>
   <si>
-    <t>WO,CS</t>
-  </si>
-  <si>
     <t>MailFilterFromName</t>
   </si>
   <si>
     <t>ErrorInvFolder</t>
   </si>
   <si>
-    <t>Data\Error Invoices</t>
-  </si>
-  <si>
     <t>.pdf|.PDF</t>
   </si>
   <si>
-    <t>Saranya.Samuel@BlackBox.com</t>
-  </si>
-  <si>
-    <t>Saranya Samuel</t>
-  </si>
-  <si>
     <t>SAPPORegEx</t>
   </si>
   <si>
@@ -320,7 +275,43 @@
     <t>[0-9]{8}</t>
   </si>
   <si>
-    <t>[a-zA-Z0-9]{8}</t>
+    <t>C:\Automation\Invoice Processing</t>
+  </si>
+  <si>
+    <t>SAP - Invoices</t>
+  </si>
+  <si>
+    <t>Shared Folder\SAP Invoices</t>
+  </si>
+  <si>
+    <t>DownloadInvoices\Data\NonSAP Invoices</t>
+  </si>
+  <si>
+    <t>DownloadInvoices\Data\Other SAP Invoices</t>
+  </si>
+  <si>
+    <t>DownloadInvoices\Data\Error Invoices</t>
+  </si>
+  <si>
+    <t>DownloadInvoices\Data\ImportFolder</t>
+  </si>
+  <si>
+    <t>DownloadInvoices\Log</t>
+  </si>
+  <si>
+    <t>DownloadInvoices_ApplicationLog_</t>
+  </si>
+  <si>
+    <t>Old exp [a-zA-Z0-9]{8}</t>
+  </si>
+  <si>
+    <t>WOT,CS</t>
+  </si>
+  <si>
+    <t>WOTPORegEx</t>
+  </si>
+  <si>
+    <t>[0-9]{7}</t>
   </si>
 </sst>
 </file>
@@ -701,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -725,82 +716,78 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>89</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -810,84 +797,84 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="B17" s="5">
+        <v>45</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="5">
-        <v>45</v>
+        <v>67</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -895,39 +882,41 @@
         <v>76</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>77</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -937,62 +926,62 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C28" s="3"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -1002,135 +991,131 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DownloadInvoices/Config_DownloadInv.xlsx
+++ b/DownloadInvoices/Config_DownloadInv.xlsx
@@ -266,9 +266,6 @@
     <t>OtherSAPPORegEx</t>
   </si>
   <si>
-    <t>Date,Log Type,Invoice File Name,Invoice Folder,Invoice Category,Invoice Source,FromEmailID,FromEmailDateTime</t>
-  </si>
-  <si>
     <t>Daily</t>
   </si>
   <si>
@@ -312,6 +309,9 @@
   </si>
   <si>
     <t>[0-9]{7}</t>
+  </si>
+  <si>
+    <t>StartDateTime,EndDateTime,Log Type,Invoice File Name,Invoice Folder,Invoice Category,Invoice Source,FromEmailID,FromEmailDateTime,Status</t>
   </si>
 </sst>
 </file>
@@ -693,7 +693,7 @@
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -719,7 +719,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
@@ -800,7 +800,7 @@
         <v>54</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="3"/>
     </row>
@@ -809,7 +809,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>20</v>
@@ -820,7 +820,7 @@
         <v>71</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
@@ -831,7 +831,7 @@
         <v>64</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>65</v>
@@ -842,7 +842,7 @@
         <v>74</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" s="3"/>
     </row>
@@ -851,7 +851,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="3"/>
     </row>
@@ -871,7 +871,7 @@
         <v>67</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>68</v>
@@ -882,7 +882,7 @@
         <v>76</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" s="3"/>
     </row>
@@ -891,21 +891,21 @@
         <v>77</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -929,7 +929,7 @@
         <v>56</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C24" s="3"/>
     </row>
@@ -938,7 +938,7 @@
         <v>52</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>53</v>
@@ -949,7 +949,7 @@
         <v>59</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" s="3"/>
     </row>
@@ -978,7 +978,7 @@
         <v>58</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>63</v>

--- a/DownloadInvoices/Config_DownloadInv.xlsx
+++ b/DownloadInvoices/Config_DownloadInv.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
   <si>
     <t>Name</t>
   </si>
@@ -269,9 +269,6 @@
     <t>Daily</t>
   </si>
   <si>
-    <t>[0-9]{8}</t>
-  </si>
-  <si>
     <t>C:\Automation\Invoice Processing</t>
   </si>
   <si>
@@ -312,6 +309,12 @@
   </si>
   <si>
     <t>StartDateTime,EndDateTime,Log Type,Invoice File Name,Invoice Folder,Invoice Category,Invoice Source,FromEmailID,FromEmailDateTime,Status</t>
+  </si>
+  <si>
+    <t>^[0-9]{8}$</t>
+  </si>
+  <si>
+    <t>^[0-9]{8}</t>
   </si>
 </sst>
 </file>
@@ -693,7 +696,7 @@
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -719,7 +722,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
@@ -800,7 +803,7 @@
         <v>54</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="3"/>
     </row>
@@ -809,7 +812,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>20</v>
@@ -820,7 +823,7 @@
         <v>71</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
@@ -831,7 +834,7 @@
         <v>64</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>65</v>
@@ -842,7 +845,7 @@
         <v>74</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="3"/>
     </row>
@@ -851,7 +854,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="3"/>
     </row>
@@ -871,7 +874,7 @@
         <v>67</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>68</v>
@@ -882,7 +885,7 @@
         <v>76</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C19" s="3"/>
     </row>
@@ -891,21 +894,21 @@
         <v>77</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -929,7 +932,7 @@
         <v>56</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" s="3"/>
     </row>
@@ -938,7 +941,7 @@
         <v>52</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>53</v>
@@ -949,7 +952,7 @@
         <v>59</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C26" s="3"/>
     </row>

--- a/DownloadInvoices/Config_DownloadInv.xlsx
+++ b/DownloadInvoices/Config_DownloadInv.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
   <si>
     <t>Name</t>
   </si>
@@ -305,16 +305,13 @@
     <t>WOTPORegEx</t>
   </si>
   <si>
-    <t>[0-9]{7}</t>
-  </si>
-  <si>
     <t>StartDateTime,EndDateTime,Log Type,Invoice File Name,Invoice Folder,Invoice Category,Invoice Source,FromEmailID,FromEmailDateTime,Status</t>
   </si>
   <si>
-    <t>^[0-9]{8}$</t>
-  </si>
-  <si>
-    <t>^[0-9]{8}</t>
+    <t>[0-9]*</t>
+  </si>
+  <si>
+    <t>[0-9]{8}[\s\n]</t>
   </si>
 </sst>
 </file>
@@ -696,7 +693,7 @@
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -894,7 +891,7 @@
         <v>77</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>88</v>
@@ -905,7 +902,7 @@
         <v>90</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>88</v>
@@ -932,7 +929,7 @@
         <v>56</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="3"/>
     </row>

--- a/DownloadInvoices/Config_DownloadInv.xlsx
+++ b/DownloadInvoices/Config_DownloadInv.xlsx
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
